--- a/demo/ams_benchmark/opf/cases/ieee39_uced.xlsx
+++ b/demo/ams_benchmark/opf/cases/ieee39_uced.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/ams/icebar/CaseStudy/opf/cases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/ams/ams/cases/ieee39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FE70DF-0649-6346-AA30-C61AD168E089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1E4575-EC57-0D4C-AF30-2C66C59A6820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Slack" sheetId="4" r:id="rId5"/>
     <sheet name="Line" sheetId="5" r:id="rId6"/>
     <sheet name="Area" sheetId="7" r:id="rId7"/>
-    <sheet name="Region" sheetId="8" r:id="rId8"/>
+    <sheet name="Zone" sheetId="8" r:id="rId8"/>
     <sheet name="GCost" sheetId="6" r:id="rId9"/>
     <sheet name="EDTSlot" sheetId="12" r:id="rId10"/>
     <sheet name="Shunt" sheetId="22" r:id="rId11"/>
@@ -6989,9 +6989,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="168" workbookViewId="0">
+    <sheetView zoomScale="168" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R10" sqref="R10:S10"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7150,10 +7150,10 @@
         <v>0.6</v>
       </c>
       <c r="R2">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="S2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7251,10 +7251,10 @@
         <v>0.6</v>
       </c>
       <c r="R3">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="S3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7352,10 +7352,10 @@
         <v>0.6</v>
       </c>
       <c r="R4">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="S4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7453,10 +7453,10 @@
         <v>0.6</v>
       </c>
       <c r="R5">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="S5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7554,10 +7554,10 @@
         <v>0.6</v>
       </c>
       <c r="R6">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="S6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7655,10 +7655,10 @@
         <v>0.6</v>
       </c>
       <c r="R7">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="S7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -7756,10 +7756,10 @@
         <v>0.6</v>
       </c>
       <c r="R8">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="S8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -7857,10 +7857,10 @@
         <v>0.6</v>
       </c>
       <c r="R9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -7958,10 +7958,10 @@
         <v>0.6</v>
       </c>
       <c r="R10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -8016,9 +8016,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="135" workbookViewId="0">
+    <sheetView zoomScale="135" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S5" sqref="S5"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8177,10 +8177,10 @@
         <v>0.6</v>
       </c>
       <c r="R2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -12080,7 +12080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1076654-EF34-CC4B-89BB-5D9DC73428FE}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
